--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>2.6524077318</v>
+        <v>0.6033680997120001</v>
       </c>
       <c r="R2">
-        <v>23.8716695862</v>
+        <v>5.430312897408</v>
       </c>
       <c r="S2">
-        <v>0.001116026469729609</v>
+        <v>0.0003389108163046869</v>
       </c>
       <c r="T2">
-        <v>0.001386516152134618</v>
+        <v>0.0003955620871852752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>22.62568841784</v>
+        <v>7.908746456016002</v>
       </c>
       <c r="R3">
-        <v>203.63119576056</v>
+        <v>71.17871810414401</v>
       </c>
       <c r="S3">
-        <v>0.009519979476544552</v>
+        <v>0.004442329182856324</v>
       </c>
       <c r="T3">
-        <v>0.01182732280123883</v>
+        <v>0.005184895019564487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>27.19054803906</v>
+        <v>7.696443896063999</v>
       </c>
       <c r="R4">
-        <v>244.71493235154</v>
+        <v>69.267995064576</v>
       </c>
       <c r="S4">
-        <v>0.01144068876524208</v>
+        <v>0.004323079202734319</v>
       </c>
       <c r="T4">
-        <v>0.01421355155527486</v>
+        <v>0.005045711586152155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>56.83338306126</v>
+        <v>8.407907426898001</v>
       </c>
       <c r="R5">
-        <v>341.00029836756</v>
+        <v>50.447444561388</v>
       </c>
       <c r="S5">
-        <v>0.02391320123984287</v>
+        <v>0.004722707035430576</v>
       </c>
       <c r="T5">
-        <v>0.01980600560266924</v>
+        <v>0.003674759970717539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H6">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I6">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J6">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>27.4459243428</v>
+        <v>11.81371333842</v>
       </c>
       <c r="R6">
-        <v>247.0133190852</v>
+        <v>106.32342004578</v>
       </c>
       <c r="S6">
-        <v>0.0115481408403128</v>
+        <v>0.006635742315552616</v>
       </c>
       <c r="T6">
-        <v>0.01434704663062199</v>
+        <v>0.007744952223666592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>26.44272828535556</v>
+        <v>17.20847842012444</v>
       </c>
       <c r="R7">
-        <v>237.9845545682</v>
+        <v>154.87630578112</v>
       </c>
       <c r="S7">
-        <v>0.01112603629695265</v>
+        <v>0.009665972515798834</v>
       </c>
       <c r="T7">
-        <v>0.01382263723431076</v>
+        <v>0.01128170621614952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
-        <v>225.5629569802401</v>
+        <v>225.56295698024</v>
       </c>
       <c r="R8">
-        <v>2030.066612822161</v>
+        <v>2030.06661282216</v>
       </c>
       <c r="S8">
-        <v>0.09490781811648354</v>
+        <v>0.1266983221598245</v>
       </c>
       <c r="T8">
-        <v>0.1179104854154946</v>
+        <v>0.1478768169834877</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>271.0715494856601</v>
+        <v>219.5079401120711</v>
       </c>
       <c r="R9">
-        <v>2439.64394537094</v>
+        <v>1975.57146100864</v>
       </c>
       <c r="S9">
-        <v>0.1140560030758602</v>
+        <v>0.1232972296749727</v>
       </c>
       <c r="T9">
-        <v>0.1416995876010989</v>
+        <v>0.1439072085281216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
         <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J10">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>566.5907574498601</v>
+        <v>239.79937551097</v>
       </c>
       <c r="R10">
-        <v>3399.544544699161</v>
+        <v>1438.79625306582</v>
       </c>
       <c r="S10">
-        <v>0.2383985973337045</v>
+        <v>0.1346948937846881</v>
       </c>
       <c r="T10">
-        <v>0.1974526081682766</v>
+        <v>0.1048067136552533</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
         <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J11">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>273.6174801619111</v>
+        <v>336.9353320846333</v>
       </c>
       <c r="R11">
-        <v>2462.5573214572</v>
+        <v>3032.4179887617</v>
       </c>
       <c r="S11">
-        <v>0.1151272282840844</v>
+        <v>0.1892559923091717</v>
       </c>
       <c r="T11">
-        <v>0.1430304440763368</v>
+        <v>0.220891431398972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>2.977170551474444</v>
+        <v>2.476750668049778</v>
       </c>
       <c r="R12">
-        <v>26.79453496327</v>
+        <v>22.290756012448</v>
       </c>
       <c r="S12">
-        <v>0.001252673599352753</v>
+        <v>0.001391186559403108</v>
       </c>
       <c r="T12">
-        <v>0.001556282244162189</v>
+        <v>0.001623732948690741</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>25.395994913164</v>
+        <v>32.464416129596</v>
       </c>
       <c r="R13">
-        <v>228.563954218476</v>
+        <v>292.179745166364</v>
       </c>
       <c r="S13">
-        <v>0.0106856130030112</v>
+        <v>0.01823520629709818</v>
       </c>
       <c r="T13">
-        <v>0.01327546919897366</v>
+        <v>0.02128334628496918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H14">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I14">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J14">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>30.519779417701</v>
+        <v>31.59294064482844</v>
       </c>
       <c r="R14">
-        <v>274.678014759309</v>
+        <v>284.336465803456</v>
       </c>
       <c r="S14">
-        <v>0.01284149539759807</v>
+        <v>0.01774570002708974</v>
       </c>
       <c r="T14">
-        <v>0.01595386961623398</v>
+        <v>0.02071201567957258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H15">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I15">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J15">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>63.792105701571</v>
+        <v>34.5134095528255</v>
       </c>
       <c r="R15">
-        <v>382.752634209426</v>
+        <v>207.080457316953</v>
       </c>
       <c r="S15">
-        <v>0.02684115178416717</v>
+        <v>0.01938612235315269</v>
       </c>
       <c r="T15">
-        <v>0.02223106798990847</v>
+        <v>0.0150844305768594</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H16">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I16">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J16">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>30.80642419026888</v>
+        <v>48.49381731822833</v>
       </c>
       <c r="R16">
-        <v>277.25781771242</v>
+        <v>436.444355864055</v>
       </c>
       <c r="S16">
-        <v>0.01296210398645114</v>
+        <v>0.02723889317465726</v>
       </c>
       <c r="T16">
-        <v>0.0161037099301214</v>
+        <v>0.03179206126929143</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>9.078280926746668</v>
+        <v>6.352190057770668</v>
       </c>
       <c r="R17">
-        <v>54.46968556048</v>
+        <v>38.113140346624</v>
       </c>
       <c r="S17">
-        <v>0.003819775403465263</v>
+        <v>0.003568014150614129</v>
       </c>
       <c r="T17">
-        <v>0.003163712473423247</v>
+        <v>0.002776288149416225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H18">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I18">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J18">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>77.43996262550402</v>
+        <v>83.26237438027202</v>
       </c>
       <c r="R18">
-        <v>464.6397757530241</v>
+        <v>499.574246281632</v>
       </c>
       <c r="S18">
-        <v>0.03258362093760133</v>
+        <v>0.04676833144170815</v>
       </c>
       <c r="T18">
-        <v>0.02698724325416262</v>
+        <v>0.03639065285860372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H19">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I19">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J19">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>93.06390970413602</v>
+        <v>81.02727741175465</v>
       </c>
       <c r="R19">
-        <v>558.3834582248161</v>
+        <v>486.163664470528</v>
       </c>
       <c r="S19">
-        <v>0.0391575493319266</v>
+        <v>0.04551288134668006</v>
       </c>
       <c r="T19">
-        <v>0.03243207104211328</v>
+        <v>0.03541378139064443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H20">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I20">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J20">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>194.521155726456</v>
+        <v>88.517483753766</v>
       </c>
       <c r="R20">
-        <v>778.0846229058242</v>
+        <v>354.069935015064</v>
       </c>
       <c r="S20">
-        <v>0.08184667693069808</v>
+        <v>0.04972011727259874</v>
       </c>
       <c r="T20">
-        <v>0.04519277101632468</v>
+        <v>0.02579163395372031</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H21">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I21">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J21">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>93.93797510501334</v>
+        <v>124.37341723814</v>
       </c>
       <c r="R21">
-        <v>563.62785063008</v>
+        <v>746.24050342884</v>
       </c>
       <c r="S21">
-        <v>0.03952532088980542</v>
+        <v>0.06986033299225002</v>
       </c>
       <c r="T21">
-        <v>0.03273667624585798</v>
+        <v>0.05435864500909331</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H22">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I22">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J22">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>4.947748139597778</v>
+        <v>2.845354776270223</v>
       </c>
       <c r="R22">
-        <v>44.52973325638</v>
+        <v>25.60819298643201</v>
       </c>
       <c r="S22">
-        <v>0.002081813373994082</v>
+        <v>0.001598230848403273</v>
       </c>
       <c r="T22">
-        <v>0.002586379397857826</v>
+        <v>0.001865386112758153</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H23">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I23">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J23">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>42.20550499621601</v>
+        <v>37.29595501266401</v>
       </c>
       <c r="R23">
-        <v>379.8495449659441</v>
+        <v>335.663595113976</v>
       </c>
       <c r="S23">
-        <v>0.01775837861553708</v>
+        <v>0.02094907331733011</v>
       </c>
       <c r="T23">
-        <v>0.02206245053679564</v>
+        <v>0.02445085481884002</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H24">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I24">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J24">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>50.72070250059401</v>
+        <v>36.29478159421155</v>
       </c>
       <c r="R24">
-        <v>456.486322505346</v>
+        <v>326.653034347904</v>
       </c>
       <c r="S24">
-        <v>0.02134123116717409</v>
+        <v>0.02038671594266573</v>
       </c>
       <c r="T24">
-        <v>0.02651367375443582</v>
+        <v>0.02379449554623927</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H25">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I25">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J25">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>106.015851913374</v>
+        <v>39.64989128026701</v>
       </c>
       <c r="R25">
-        <v>636.0951114802441</v>
+        <v>237.899347681602</v>
       </c>
       <c r="S25">
-        <v>0.0446072055693967</v>
+        <v>0.02227127524077176</v>
       </c>
       <c r="T25">
-        <v>0.03694572527390711</v>
+        <v>0.01732938125054777</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H26">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I26">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J26">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>51.19707633127555</v>
+        <v>55.71094277109667</v>
       </c>
       <c r="R26">
-        <v>460.77368698148</v>
+        <v>501.3984849398701</v>
       </c>
       <c r="S26">
-        <v>0.02154167011106388</v>
+        <v>0.0312927400382426</v>
       </c>
       <c r="T26">
-        <v>0.02676269278826513</v>
+        <v>0.03652353648148319</v>
       </c>
     </row>
   </sheetData>
